--- a/Comparison-Chart.xlsx
+++ b/Comparison-Chart.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 6\Parallel and Distributed Computing\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fahadali\VIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1929C5-ABD2-4F18-BC92-74DF5B456CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226828E6-2A8B-4DE7-88C1-62DF5CC8CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1401,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,6 +1511,22 @@
         <v>0.27821400000000002</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f>AVERAGE(A2:A11)</f>
+        <v>0.43361090000000002</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.25320729999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>A12/B12</f>
+        <v>1.7124739294641191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Comparison-Chart.xlsx
+++ b/Comparison-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fahadali\VIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226828E6-2A8B-4DE7-88C1-62DF5CC8CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517CBE39-B462-437D-9FCD-8EB7A7CC115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Sequential</t>
   </si>
   <si>
     <t>Parallel</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -121,23 +124,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,36 +282,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> time Comparison in Sequential and Parallel</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -296,7 +383,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90A6-4ACA-9349-556B03E1304B}"/>
+              <c16:uniqueId val="{00000000-B318-4F10-BC93-E64FD2E299D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -365,7 +452,76 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-90A6-4ACA-9349-556B03E1304B}"/>
+              <c16:uniqueId val="{00000001-B318-4F10-BC93-E64FD2E299D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.410416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26530300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.289572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.289325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27174300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25028699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27987699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29025099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28797200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28804600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B318-4F10-BC93-E64FD2E299D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -379,17 +535,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1781038431"/>
-        <c:axId val="1781041311"/>
+        <c:axId val="1146468319"/>
+        <c:axId val="1146469279"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1781038431"/>
+        <c:axId val="1146468319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -426,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781041311"/>
+        <c:crossAx val="1146469279"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -434,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1781041311"/>
+        <c:axId val="1146469279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781038431"/>
+        <c:crossAx val="1146468319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -530,6 +685,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1112,23 +1274,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>530224</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81928BC-6B8A-F07B-BDE4-40217103A0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A969367C-766D-BA49-90E1-0DD6F2B259E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,6 +1309,16 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DEED52D-0650-4237-84E3-5BA71B358D32}" name="Table1" displayName="Table1" ref="C1:C11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="C1:C11" xr:uid="{3DEED52D-0650-4237-84E3-5BA71B358D32}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3DAB02A2-7EC9-425B-B31F-928CB5B1FDE7}" name="Static" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,95 +1595,128 @@
     <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.42190499999999997</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.32120500000000002</v>
       </c>
+      <c r="C2" s="6">
+        <v>0.410416</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.47256700000000001</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0.23334099999999999</v>
       </c>
+      <c r="C3" s="6">
+        <v>0.26530300000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.55099100000000001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>0.23485800000000001</v>
       </c>
+      <c r="C4" s="6">
+        <v>0.289572</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.41165299999999999</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0.23791699999999999</v>
       </c>
+      <c r="C5" s="6">
+        <v>0.289325</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.41581499999999999</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0.24676400000000001</v>
       </c>
+      <c r="C6" s="6">
+        <v>0.27174300000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.415022</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>0.24240600000000001</v>
       </c>
+      <c r="C7" s="6">
+        <v>0.25028699999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.41514299999999998</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0.24621399999999999</v>
       </c>
+      <c r="C8" s="6">
+        <v>0.27987699999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.409605</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>0.24718499999999999</v>
       </c>
+      <c r="C9" s="6">
+        <v>0.29025099999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.411748</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.24396899999999999</v>
       </c>
+      <c r="C10" s="6">
+        <v>0.28797200000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.41166000000000003</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>0.27821400000000002</v>
       </c>
+      <c r="C11" s="7">
+        <v>0.28804600000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>0.43361090000000002</v>
@@ -1520,8 +1725,12 @@
         <f>AVERAGE(B2:B11)</f>
         <v>0.25320729999999997</v>
       </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.29227919999999996</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>A12/B12</f>
         <v>1.7124739294641191</v>
@@ -1531,5 +1740,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>